--- a/MyStoreDataDrivenTest/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreDataDrivenTest/src/test/resources/TestData/TestData.xlsx
@@ -288,9 +288,6 @@
     <t xml:space="preserve">July </t>
   </si>
   <si>
-    <t>pngp@gmail.com</t>
-  </si>
-  <si>
     <t>pngpn@gmail.com</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>Florida</t>
+  </si>
+  <si>
+    <t>pngpgn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="11" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>73</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>84</v>
@@ -1323,7 +1323,7 @@
         <v>78</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>80</v>
@@ -1332,21 +1332,21 @@
         <v>81</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>74</v>
@@ -1370,7 +1370,7 @@
         <v>78</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>80</v>
@@ -1379,7 +1379,7 @@
         <v>81</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
